--- a/MFC_笔记.xlsx
+++ b/MFC_笔记.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Cview</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -166,6 +166,26 @@
   </si>
   <si>
     <t>在其构造函数中自动调用GetDC，在其析构函数中自动调用ReleaseDC函数。CClientDC对象联系的DC是窗口的客户区。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDI绘图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备上下文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制场景</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDI对象</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘图工具</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -362,6 +382,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,41 +424,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -577,7 +597,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>封装好了，不需人为干预。</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1107,6 +1126,156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>26982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA08EBA9-C591-4EB8-865A-4088378BE443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="25237440"/>
+          <a:ext cx="9144000" cy="1429062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>343395</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2AB847-B3B5-453D-9A50-353483004804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="26990040"/>
+          <a:ext cx="8877795" cy="1927860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>49760</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFF2378-AB9D-42DC-9439-B5F5F58DC369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="29268420"/>
+          <a:ext cx="9193760" cy="2453640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1409,55 +1578,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W133"/>
+  <dimension ref="A2:W143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="U137" sqref="U137"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="11"/>
-    <col min="20" max="23" width="8.88671875" style="11"/>
+    <col min="1" max="4" width="8.88671875" style="5"/>
+    <col min="20" max="23" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
@@ -1470,99 +1639,99 @@
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="5:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="14" t="s">
+    <row r="39" spans="5:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-    </row>
-    <row r="40" spans="5:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+    </row>
+    <row r="40" spans="5:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="42" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F42" s="8">
+      <c r="F42" s="16">
         <v>1</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F43" s="8"/>
-      <c r="G43" s="7" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F44" s="9">
+      <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F45" s="9">
+      <c r="F45" s="4">
         <v>3</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F49" s="1">
@@ -1581,226 +1750,315 @@
       </c>
     </row>
     <row r="54" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="17" t="s">
+      <c r="G54" s="17"/>
+      <c r="H54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="17" t="s">
+      <c r="G57" s="17"/>
+      <c r="H57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="17" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
     </row>
     <row r="59" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="116" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="14" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="116" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
-      <c r="L116" s="14"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="14"/>
-      <c r="S116" s="14"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-    </row>
-    <row r="117" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
-      <c r="R117" s="14"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+    </row>
+    <row r="117" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H119" s="16"/>
+      <c r="H119" s="11"/>
       <c r="I119" t="s">
         <v>21</v>
       </c>
       <c r="T119"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
       <c r="T120"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
       <c r="T121"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="16"/>
+      <c r="H122" s="11"/>
       <c r="I122" t="s">
         <v>26</v>
       </c>
       <c r="T122"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
       <c r="T123"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
       <c r="T124"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H125" s="16"/>
+      <c r="H125" s="11"/>
       <c r="T125"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
       <c r="T126"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
       <c r="T127"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
       <c r="T128"/>
     </row>
-    <row r="129" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
       <c r="T129"/>
     </row>
-    <row r="130" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
       <c r="T130"/>
     </row>
-    <row r="131" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G131" s="16" t="s">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G131" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H131" s="16"/>
+      <c r="H131" s="11"/>
       <c r="I131" t="s">
         <v>25</v>
       </c>
       <c r="T131"/>
     </row>
-    <row r="132" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
       <c r="T132"/>
     </row>
-    <row r="133" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
       <c r="T133"/>
     </row>
+    <row r="135" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
+      <c r="T135" s="6"/>
+      <c r="U135" s="6"/>
+      <c r="V135" s="6"/>
+      <c r="W135" s="6"/>
+    </row>
+    <row r="136" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="6"/>
+      <c r="U136" s="6"/>
+      <c r="V136" s="6"/>
+      <c r="W136" s="6"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E138" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E141" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="11"/>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="E135:S136"/>
+    <mergeCell ref="E138:F140"/>
+    <mergeCell ref="E141:F143"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:I4"/>
+    <mergeCell ref="J2:K4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="E39:S40"/>
     <mergeCell ref="E116:S117"/>
     <mergeCell ref="G119:H121"/>
     <mergeCell ref="G122:H124"/>
     <mergeCell ref="G131:H133"/>
     <mergeCell ref="G125:H130"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:I4"/>
-    <mergeCell ref="J2:K4"/>
-    <mergeCell ref="M2:N4"/>
-    <mergeCell ref="F42:F43"/>
     <mergeCell ref="F54:G56"/>
     <mergeCell ref="F57:G59"/>
   </mergeCells>
